--- a/data/pca/factorExposure/factorExposure_2011-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02167180266698401</v>
+        <v>0.01632287405332577</v>
       </c>
       <c r="C2">
-        <v>-0.01833394694445549</v>
+        <v>-0.010537649763899</v>
       </c>
       <c r="D2">
-        <v>0.04422358212400884</v>
+        <v>-0.034954833830451</v>
       </c>
       <c r="E2">
-        <v>-0.06707395027340739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03403901390919122</v>
+      </c>
+      <c r="F2">
+        <v>-0.02939920701885698</v>
+      </c>
+      <c r="G2">
+        <v>-0.003679158913442723</v>
+      </c>
+      <c r="H2">
+        <v>-0.01523465659135725</v>
+      </c>
+      <c r="I2">
+        <v>0.01499964165754125</v>
+      </c>
+      <c r="J2">
+        <v>0.05863349414853405</v>
+      </c>
+      <c r="K2">
+        <v>0.06852262462715406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08245468663975794</v>
+        <v>0.09523344631758023</v>
       </c>
       <c r="C4">
-        <v>-0.04878672463502585</v>
+        <v>-0.05093880114125898</v>
       </c>
       <c r="D4">
-        <v>0.04919199954436335</v>
+        <v>-0.03769320147149783</v>
       </c>
       <c r="E4">
-        <v>-0.01509930678441381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01382851030521442</v>
+      </c>
+      <c r="F4">
+        <v>-0.07400946848057845</v>
+      </c>
+      <c r="G4">
+        <v>-0.01970409922945094</v>
+      </c>
+      <c r="H4">
+        <v>-0.004128717383457525</v>
+      </c>
+      <c r="I4">
+        <v>-0.07138068232468596</v>
+      </c>
+      <c r="J4">
+        <v>-0.02805813061811939</v>
+      </c>
+      <c r="K4">
+        <v>-0.05336464192660555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1197974439783678</v>
+        <v>0.1309837088776874</v>
       </c>
       <c r="C6">
-        <v>0.001073925645666978</v>
+        <v>-0.005473221972671912</v>
       </c>
       <c r="D6">
-        <v>0.04719723569399344</v>
+        <v>-0.06922099906559792</v>
       </c>
       <c r="E6">
-        <v>-0.06978993784420441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02083345578954488</v>
+      </c>
+      <c r="F6">
+        <v>-0.03403202646034124</v>
+      </c>
+      <c r="G6">
+        <v>-0.07084826264537278</v>
+      </c>
+      <c r="H6">
+        <v>0.1935342696574469</v>
+      </c>
+      <c r="I6">
+        <v>-0.01484005461880666</v>
+      </c>
+      <c r="J6">
+        <v>-0.4480223700744305</v>
+      </c>
+      <c r="K6">
+        <v>-0.02511591254338228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07323829805891283</v>
+        <v>0.07235048387805418</v>
       </c>
       <c r="C7">
-        <v>-0.02392124565412564</v>
+        <v>-0.05374563358488123</v>
       </c>
       <c r="D7">
-        <v>0.060004916102275</v>
+        <v>-0.05331414275772519</v>
       </c>
       <c r="E7">
-        <v>-0.05048196520623185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.02122481973699155</v>
+      </c>
+      <c r="F7">
+        <v>-0.03671077291842174</v>
+      </c>
+      <c r="G7">
+        <v>0.01111407317866417</v>
+      </c>
+      <c r="H7">
+        <v>-0.001047345993824744</v>
+      </c>
+      <c r="I7">
+        <v>-0.03001802664318582</v>
+      </c>
+      <c r="J7">
+        <v>0.06978262209146865</v>
+      </c>
+      <c r="K7">
+        <v>-0.07003144600333421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03873468012309787</v>
+        <v>0.04105403367526616</v>
       </c>
       <c r="C8">
-        <v>-0.05179487454738128</v>
+        <v>-0.02306309509790259</v>
       </c>
       <c r="D8">
-        <v>-0.009259025988378682</v>
+        <v>0.003055761175790096</v>
       </c>
       <c r="E8">
-        <v>-0.06272036397942514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06102020972686862</v>
+      </c>
+      <c r="F8">
+        <v>-0.05182905295168651</v>
+      </c>
+      <c r="G8">
+        <v>-0.04905173951093599</v>
+      </c>
+      <c r="H8">
+        <v>0.01755535571199993</v>
+      </c>
+      <c r="I8">
+        <v>-0.1013678768792786</v>
+      </c>
+      <c r="J8">
+        <v>-0.007638548042515486</v>
+      </c>
+      <c r="K8">
+        <v>-0.04772984012986893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07909575485557799</v>
+        <v>0.0870154940909478</v>
       </c>
       <c r="C9">
-        <v>-0.05773768539501379</v>
+        <v>-0.0509820518040651</v>
       </c>
       <c r="D9">
-        <v>0.0429165817209005</v>
+        <v>-0.03657415881064029</v>
       </c>
       <c r="E9">
-        <v>-0.01865974960756257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01187678882428742</v>
+      </c>
+      <c r="F9">
+        <v>-0.05854671150229356</v>
+      </c>
+      <c r="G9">
+        <v>-0.03042166351380915</v>
+      </c>
+      <c r="H9">
+        <v>-0.00832652565231146</v>
+      </c>
+      <c r="I9">
+        <v>-0.08572126022321154</v>
+      </c>
+      <c r="J9">
+        <v>-0.02746278581030197</v>
+      </c>
+      <c r="K9">
+        <v>-0.03240820867845662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01947382765872114</v>
+        <v>0.06780098649001101</v>
       </c>
       <c r="C10">
-        <v>0.1653433696632987</v>
+        <v>0.1975813851873824</v>
       </c>
       <c r="D10">
-        <v>0.00196444874272837</v>
+        <v>-0.02470380600667432</v>
       </c>
       <c r="E10">
-        <v>-0.08095675998707362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.04347162404597936</v>
+      </c>
+      <c r="F10">
+        <v>-0.03034527090344478</v>
+      </c>
+      <c r="G10">
+        <v>0.03712551675834964</v>
+      </c>
+      <c r="H10">
+        <v>0.01351577650929218</v>
+      </c>
+      <c r="I10">
+        <v>0.0276243005997835</v>
+      </c>
+      <c r="J10">
+        <v>0.02217580874374821</v>
+      </c>
+      <c r="K10">
+        <v>0.02260325178122282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07545031766831919</v>
+        <v>0.07615529503284629</v>
       </c>
       <c r="C11">
-        <v>-0.05882374538463221</v>
+        <v>-0.05844335456015229</v>
       </c>
       <c r="D11">
-        <v>0.03162704463715562</v>
+        <v>-0.03234813981313586</v>
       </c>
       <c r="E11">
-        <v>-0.03784245626564989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01704355065388452</v>
+      </c>
+      <c r="F11">
+        <v>-0.02324895019106296</v>
+      </c>
+      <c r="G11">
+        <v>-0.05202237531240602</v>
+      </c>
+      <c r="H11">
+        <v>-0.03001248393679914</v>
+      </c>
+      <c r="I11">
+        <v>-0.08235657797941724</v>
+      </c>
+      <c r="J11">
+        <v>0.04284380871146952</v>
+      </c>
+      <c r="K11">
+        <v>0.04658080093422506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07137642121932937</v>
+        <v>0.07287677776759424</v>
       </c>
       <c r="C12">
-        <v>-0.04396900503298888</v>
+        <v>-0.04726950056323456</v>
       </c>
       <c r="D12">
-        <v>0.03850695436702027</v>
+        <v>-0.0275140761070281</v>
       </c>
       <c r="E12">
-        <v>-0.03181315621921386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0088582611679076</v>
+      </c>
+      <c r="F12">
+        <v>-0.03412841945505426</v>
+      </c>
+      <c r="G12">
+        <v>-0.03857786164202486</v>
+      </c>
+      <c r="H12">
+        <v>-0.003994903994861823</v>
+      </c>
+      <c r="I12">
+        <v>-0.09418526078301941</v>
+      </c>
+      <c r="J12">
+        <v>0.04663838817230867</v>
+      </c>
+      <c r="K12">
+        <v>0.01975251544689231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08118766711290433</v>
+        <v>0.06988480585751056</v>
       </c>
       <c r="C13">
-        <v>-0.03581791537560788</v>
+        <v>-0.03478947762893954</v>
       </c>
       <c r="D13">
-        <v>0.02741076747411493</v>
+        <v>0.008483140888770033</v>
       </c>
       <c r="E13">
-        <v>-0.01772753703443577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.003767075283418156</v>
+      </c>
+      <c r="F13">
+        <v>-0.04432805437392339</v>
+      </c>
+      <c r="G13">
+        <v>-0.003676410857468768</v>
+      </c>
+      <c r="H13">
+        <v>-0.007442141278810575</v>
+      </c>
+      <c r="I13">
+        <v>-0.09353135392232644</v>
+      </c>
+      <c r="J13">
+        <v>0.03596832795660712</v>
+      </c>
+      <c r="K13">
+        <v>-0.1085815525429585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03451904664145251</v>
+        <v>0.04341282732973615</v>
       </c>
       <c r="C14">
-        <v>0.004525891845481796</v>
+        <v>-0.008095418982875273</v>
       </c>
       <c r="D14">
-        <v>0.03107491335454774</v>
+        <v>-0.03456917413687337</v>
       </c>
       <c r="E14">
-        <v>-0.01239356257698712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00308235440503952</v>
+      </c>
+      <c r="F14">
+        <v>-0.02785600278783317</v>
+      </c>
+      <c r="G14">
+        <v>-0.0190942321969853</v>
+      </c>
+      <c r="H14">
+        <v>-0.04972048589933115</v>
+      </c>
+      <c r="I14">
+        <v>-0.06358913763648433</v>
+      </c>
+      <c r="J14">
+        <v>-0.03672892638642005</v>
+      </c>
+      <c r="K14">
+        <v>-0.05128334894224899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0577703999012754</v>
+        <v>0.04593313326956052</v>
       </c>
       <c r="C15">
-        <v>-0.01591148569788214</v>
+        <v>-0.01629584414885464</v>
       </c>
       <c r="D15">
-        <v>0.009607744689714263</v>
+        <v>0.01132327936681736</v>
       </c>
       <c r="E15">
-        <v>-0.005953572023334067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.002414116182361898</v>
+      </c>
+      <c r="F15">
+        <v>-0.03517589034170085</v>
+      </c>
+      <c r="G15">
+        <v>-0.0005800972124759513</v>
+      </c>
+      <c r="H15">
+        <v>-0.006676608636493621</v>
+      </c>
+      <c r="I15">
+        <v>-0.03058698251235824</v>
+      </c>
+      <c r="J15">
+        <v>-0.03382839386333319</v>
+      </c>
+      <c r="K15">
+        <v>-0.07454027101544276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06460103253779102</v>
+        <v>0.0751632733868501</v>
       </c>
       <c r="C16">
-        <v>-0.05968079060468737</v>
+        <v>-0.05877511664557496</v>
       </c>
       <c r="D16">
-        <v>0.03602823587417033</v>
+        <v>-0.03365935366377673</v>
       </c>
       <c r="E16">
-        <v>-0.02815064485249502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008450487653835492</v>
+      </c>
+      <c r="F16">
+        <v>-0.03884792917924629</v>
+      </c>
+      <c r="G16">
+        <v>-0.03049741641676948</v>
+      </c>
+      <c r="H16">
+        <v>-0.02260628703410039</v>
+      </c>
+      <c r="I16">
+        <v>-0.06079165262949181</v>
+      </c>
+      <c r="J16">
+        <v>0.03068954645723435</v>
+      </c>
+      <c r="K16">
+        <v>0.02500267608683425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0693106768211002</v>
+        <v>0.06258555297558013</v>
       </c>
       <c r="C20">
-        <v>-0.05189016222601664</v>
+        <v>-0.03875580443409165</v>
       </c>
       <c r="D20">
-        <v>0.01593458814979824</v>
+        <v>-0.01128274263219224</v>
       </c>
       <c r="E20">
-        <v>-0.02526064908549202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0158473183408783</v>
+      </c>
+      <c r="F20">
+        <v>-0.01549877282581333</v>
+      </c>
+      <c r="G20">
+        <v>-0.02582107629790317</v>
+      </c>
+      <c r="H20">
+        <v>-0.02627494590619991</v>
+      </c>
+      <c r="I20">
+        <v>-0.1197162883181424</v>
+      </c>
+      <c r="J20">
+        <v>0.02255989440222553</v>
+      </c>
+      <c r="K20">
+        <v>-0.0417857425457893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03875594225300729</v>
+        <v>0.03115009157487047</v>
       </c>
       <c r="C21">
-        <v>-0.02347170819310871</v>
+        <v>-0.02527160315707021</v>
       </c>
       <c r="D21">
-        <v>-0.02587259230140719</v>
+        <v>0.03430394337561495</v>
       </c>
       <c r="E21">
-        <v>-0.01465617294488351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.005350479149195073</v>
+      </c>
+      <c r="F21">
+        <v>-0.02088950076192185</v>
+      </c>
+      <c r="G21">
+        <v>0.001465085467435925</v>
+      </c>
+      <c r="H21">
+        <v>0.0677415324088091</v>
+      </c>
+      <c r="I21">
+        <v>-0.04605216421062095</v>
+      </c>
+      <c r="J21">
+        <v>-0.03778979930792017</v>
+      </c>
+      <c r="K21">
+        <v>-0.05883691236329868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1166417740109568</v>
+        <v>0.09392157629044473</v>
       </c>
       <c r="C22">
-        <v>-0.1092082469371648</v>
+        <v>-0.06540782584183681</v>
       </c>
       <c r="D22">
-        <v>-0.02626957213119611</v>
+        <v>0.2635110282386996</v>
       </c>
       <c r="E22">
-        <v>-0.01193763469998129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0167596959285711</v>
+      </c>
+      <c r="F22">
+        <v>-0.4787132936666732</v>
+      </c>
+      <c r="G22">
+        <v>0.2937759527593614</v>
+      </c>
+      <c r="H22">
+        <v>0.06440598063598903</v>
+      </c>
+      <c r="I22">
+        <v>0.2453471171590361</v>
+      </c>
+      <c r="J22">
+        <v>0.02505649646527962</v>
+      </c>
+      <c r="K22">
+        <v>0.05732530993397807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1175942542975693</v>
+        <v>0.09485840322954432</v>
       </c>
       <c r="C23">
-        <v>-0.1085058185990237</v>
+        <v>-0.06564839833771935</v>
       </c>
       <c r="D23">
-        <v>-0.02434322272636305</v>
+        <v>0.2628026300617954</v>
       </c>
       <c r="E23">
-        <v>-0.01277109371513351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.01698355357490594</v>
+      </c>
+      <c r="F23">
+        <v>-0.4836234864777798</v>
+      </c>
+      <c r="G23">
+        <v>0.2895210972295896</v>
+      </c>
+      <c r="H23">
+        <v>0.06250940051004381</v>
+      </c>
+      <c r="I23">
+        <v>0.2463686971480751</v>
+      </c>
+      <c r="J23">
+        <v>0.01912626374211564</v>
+      </c>
+      <c r="K23">
+        <v>0.05782418995075725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08570116287597976</v>
+        <v>0.08515155243666782</v>
       </c>
       <c r="C24">
-        <v>-0.05743463376120254</v>
+        <v>-0.05631139853602801</v>
       </c>
       <c r="D24">
-        <v>0.03111984150213464</v>
+        <v>-0.02537910450081636</v>
       </c>
       <c r="E24">
-        <v>-0.04180899626049853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.01982300095494973</v>
+      </c>
+      <c r="F24">
+        <v>-0.04378811891829539</v>
+      </c>
+      <c r="G24">
+        <v>-0.0505790893845575</v>
+      </c>
+      <c r="H24">
+        <v>-0.008252983440724011</v>
+      </c>
+      <c r="I24">
+        <v>-0.07988504514450492</v>
+      </c>
+      <c r="J24">
+        <v>0.02279173348136191</v>
+      </c>
+      <c r="K24">
+        <v>0.03292175897627112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08221251362584404</v>
+        <v>0.07918844792812159</v>
       </c>
       <c r="C25">
-        <v>-0.04824757290143922</v>
+        <v>-0.04562475141980533</v>
       </c>
       <c r="D25">
-        <v>0.04718445976915564</v>
+        <v>-0.03603624733505686</v>
       </c>
       <c r="E25">
-        <v>-0.04784188129154184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01127726914990309</v>
+      </c>
+      <c r="F25">
+        <v>-0.04809031908481314</v>
+      </c>
+      <c r="G25">
+        <v>-0.03911921696454677</v>
+      </c>
+      <c r="H25">
+        <v>-0.02048929389498836</v>
+      </c>
+      <c r="I25">
+        <v>-0.09585262401684523</v>
+      </c>
+      <c r="J25">
+        <v>0.02948332698999414</v>
+      </c>
+      <c r="K25">
+        <v>0.04598562722742419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05306695758395984</v>
+        <v>0.04767877483907459</v>
       </c>
       <c r="C26">
-        <v>-0.01315972925894242</v>
+        <v>-0.02253304228353954</v>
       </c>
       <c r="D26">
-        <v>-0.001860229745593767</v>
+        <v>0.01675470824316605</v>
       </c>
       <c r="E26">
-        <v>-0.03485777330356835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.01136680037880603</v>
+      </c>
+      <c r="F26">
+        <v>-0.02148672806330105</v>
+      </c>
+      <c r="G26">
+        <v>-0.01168176504579592</v>
+      </c>
+      <c r="H26">
+        <v>-0.02837897001498447</v>
+      </c>
+      <c r="I26">
+        <v>-0.03534981941985289</v>
+      </c>
+      <c r="J26">
+        <v>-0.01213001558878921</v>
+      </c>
+      <c r="K26">
+        <v>-0.1224609761251394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04648314554149575</v>
+        <v>0.0834889331026312</v>
       </c>
       <c r="C28">
-        <v>0.2976684362520075</v>
+        <v>0.2963916952107484</v>
       </c>
       <c r="D28">
-        <v>0.004056275812128782</v>
+        <v>0.001421098174435112</v>
       </c>
       <c r="E28">
-        <v>-0.07547305923454617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02020506874369826</v>
+      </c>
+      <c r="F28">
+        <v>-0.01331300453869328</v>
+      </c>
+      <c r="G28">
+        <v>-0.01298407192380631</v>
+      </c>
+      <c r="H28">
+        <v>0.04167041508676374</v>
+      </c>
+      <c r="I28">
+        <v>0.02413412411699411</v>
+      </c>
+      <c r="J28">
+        <v>0.003175931296771875</v>
+      </c>
+      <c r="K28">
+        <v>-0.06105490555980071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05928598811870373</v>
+        <v>0.05495282456639041</v>
       </c>
       <c r="C29">
-        <v>0.0007176172553626434</v>
+        <v>-0.01019714631052086</v>
       </c>
       <c r="D29">
-        <v>0.02912674583097248</v>
+        <v>-0.02277642154032294</v>
       </c>
       <c r="E29">
-        <v>-0.02491975977340497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01417906233986428</v>
+      </c>
+      <c r="F29">
+        <v>-0.03275001370697942</v>
+      </c>
+      <c r="G29">
+        <v>-0.01522352907468543</v>
+      </c>
+      <c r="H29">
+        <v>-0.06446584000267205</v>
+      </c>
+      <c r="I29">
+        <v>-0.05113624847006368</v>
+      </c>
+      <c r="J29">
+        <v>-0.02028733385369185</v>
+      </c>
+      <c r="K29">
+        <v>-0.04014639177438428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1516936680936658</v>
+        <v>0.1325978976967555</v>
       </c>
       <c r="C30">
-        <v>-0.06624510158189607</v>
+        <v>-0.05448577957177331</v>
       </c>
       <c r="D30">
-        <v>0.06776083167431164</v>
+        <v>-0.03143714914082147</v>
       </c>
       <c r="E30">
-        <v>-0.05316543510621471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01915165290928064</v>
+      </c>
+      <c r="F30">
+        <v>-0.1249348964392794</v>
+      </c>
+      <c r="G30">
+        <v>-0.06476311238313701</v>
+      </c>
+      <c r="H30">
+        <v>0.08860846446050802</v>
+      </c>
+      <c r="I30">
+        <v>-0.2684049332429382</v>
+      </c>
+      <c r="J30">
+        <v>0.1308891649701727</v>
+      </c>
+      <c r="K30">
+        <v>-0.2605115926415752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06009076744578701</v>
+        <v>0.04875988360771744</v>
       </c>
       <c r="C31">
-        <v>-0.01603819238140211</v>
+        <v>-0.0354539379834208</v>
       </c>
       <c r="D31">
-        <v>0.02578283792607006</v>
+        <v>-0.006109264237938131</v>
       </c>
       <c r="E31">
-        <v>-0.003734405569496189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008885409510664669</v>
+      </c>
+      <c r="F31">
+        <v>-0.01765483805969565</v>
+      </c>
+      <c r="G31">
+        <v>0.0131121424680812</v>
+      </c>
+      <c r="H31">
+        <v>-0.05157423137177788</v>
+      </c>
+      <c r="I31">
+        <v>-0.04509768495641981</v>
+      </c>
+      <c r="J31">
+        <v>-0.02380977545828175</v>
+      </c>
+      <c r="K31">
+        <v>-0.02117772906277146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04565596654071743</v>
+        <v>0.05025570350784272</v>
       </c>
       <c r="C32">
-        <v>-0.009519567052836117</v>
+        <v>0.006697792614414406</v>
       </c>
       <c r="D32">
-        <v>0.01326788811214343</v>
+        <v>0.01830826062860567</v>
       </c>
       <c r="E32">
-        <v>0.001103514128883984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01281668886036873</v>
+      </c>
+      <c r="F32">
+        <v>-0.07508208748918462</v>
+      </c>
+      <c r="G32">
+        <v>0.01458398606715657</v>
+      </c>
+      <c r="H32">
+        <v>0.002191360073379477</v>
+      </c>
+      <c r="I32">
+        <v>0.03437493640266998</v>
+      </c>
+      <c r="J32">
+        <v>0.0609748517852886</v>
+      </c>
+      <c r="K32">
+        <v>-0.1285113048029445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1030662687955682</v>
+        <v>0.1042522135874434</v>
       </c>
       <c r="C33">
-        <v>-0.02993970256674287</v>
+        <v>-0.04650067567277383</v>
       </c>
       <c r="D33">
-        <v>0.03653355582398449</v>
+        <v>-0.01155329373063235</v>
       </c>
       <c r="E33">
-        <v>-0.00852186229208728</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02006516074063283</v>
+      </c>
+      <c r="F33">
+        <v>-0.03148026162650362</v>
+      </c>
+      <c r="G33">
+        <v>-0.007546871074966294</v>
+      </c>
+      <c r="H33">
+        <v>-0.02392008073676759</v>
+      </c>
+      <c r="I33">
+        <v>-0.06906029854981255</v>
+      </c>
+      <c r="J33">
+        <v>-0.008559829723833312</v>
+      </c>
+      <c r="K33">
+        <v>-0.03917492556744353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06461209514436941</v>
+        <v>0.07060180881702816</v>
       </c>
       <c r="C34">
-        <v>-0.05753887992346827</v>
+        <v>-0.04751184549055646</v>
       </c>
       <c r="D34">
-        <v>0.02273857453858861</v>
+        <v>-0.02089289063023902</v>
       </c>
       <c r="E34">
-        <v>-0.02623516838864845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0114319263321268</v>
+      </c>
+      <c r="F34">
+        <v>-0.02938040325590063</v>
+      </c>
+      <c r="G34">
+        <v>-0.03423071997759259</v>
+      </c>
+      <c r="H34">
+        <v>-0.03233629837426642</v>
+      </c>
+      <c r="I34">
+        <v>-0.07386565338977347</v>
+      </c>
+      <c r="J34">
+        <v>0.009237888791871315</v>
+      </c>
+      <c r="K34">
+        <v>0.05032828786558682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04148459716514439</v>
+        <v>0.0359428165642261</v>
       </c>
       <c r="C35">
-        <v>-0.007549214126035813</v>
+        <v>-0.01694271562253325</v>
       </c>
       <c r="D35">
-        <v>0.01670996188678192</v>
+        <v>-0.01080548633971586</v>
       </c>
       <c r="E35">
-        <v>-0.003004724435738992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01035807929543927</v>
+      </c>
+      <c r="F35">
+        <v>-0.01291488018598669</v>
+      </c>
+      <c r="G35">
+        <v>0.0109237965108561</v>
+      </c>
+      <c r="H35">
+        <v>-0.02162476234353498</v>
+      </c>
+      <c r="I35">
+        <v>-0.06369268660739999</v>
+      </c>
+      <c r="J35">
+        <v>0.01013587586243633</v>
+      </c>
+      <c r="K35">
+        <v>-0.01000456264906788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03845574651577525</v>
+        <v>0.03445684944022374</v>
       </c>
       <c r="C36">
-        <v>-0.01568859860010045</v>
+        <v>-0.01284477595982167</v>
       </c>
       <c r="D36">
-        <v>0.01452428112492908</v>
+        <v>-0.002838992234433578</v>
       </c>
       <c r="E36">
-        <v>-0.02909052556788392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01660152874658467</v>
+      </c>
+      <c r="F36">
+        <v>-0.03740146421156963</v>
+      </c>
+      <c r="G36">
+        <v>-0.01382557924609058</v>
+      </c>
+      <c r="H36">
+        <v>-0.01570722434670177</v>
+      </c>
+      <c r="I36">
+        <v>-0.07190991599570275</v>
+      </c>
+      <c r="J36">
+        <v>0.004045151220498021</v>
+      </c>
+      <c r="K36">
+        <v>-0.04743523259361598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.0663966716940456</v>
+        <v>0.0549847605816062</v>
       </c>
       <c r="C38">
-        <v>-0.00628114747547729</v>
+        <v>-0.03637399263446721</v>
       </c>
       <c r="D38">
-        <v>-0.02238099590887212</v>
+        <v>0.03537210544236534</v>
       </c>
       <c r="E38">
-        <v>0.01346681476300039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01255549423835072</v>
+      </c>
+      <c r="F38">
+        <v>0.005433668618584088</v>
+      </c>
+      <c r="G38">
+        <v>-0.0008289042001576371</v>
+      </c>
+      <c r="H38">
+        <v>-0.01890750778984514</v>
+      </c>
+      <c r="I38">
+        <v>0.04509073284913342</v>
+      </c>
+      <c r="J38">
+        <v>0.007533842182800991</v>
+      </c>
+      <c r="K38">
+        <v>-0.05996749470979805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09550922656113126</v>
+        <v>0.1002715685793097</v>
       </c>
       <c r="C39">
-        <v>-0.04535019049237107</v>
+        <v>-0.04986347822298473</v>
       </c>
       <c r="D39">
-        <v>0.03952361415358219</v>
+        <v>-0.03072615809018054</v>
       </c>
       <c r="E39">
-        <v>-0.005940431354703034</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.002214991918555642</v>
+      </c>
+      <c r="F39">
+        <v>-0.04054452418434776</v>
+      </c>
+      <c r="G39">
+        <v>-0.03843498424767938</v>
+      </c>
+      <c r="H39">
+        <v>-0.009408878804458676</v>
+      </c>
+      <c r="I39">
+        <v>-0.09230182301402595</v>
+      </c>
+      <c r="J39">
+        <v>0.1410328363485854</v>
+      </c>
+      <c r="K39">
+        <v>0.01199388824512684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07387896269285216</v>
+        <v>0.04869117888712993</v>
       </c>
       <c r="C40">
-        <v>-0.01769378409404266</v>
+        <v>-0.04098363123432983</v>
       </c>
       <c r="D40">
-        <v>0.02905090495181236</v>
+        <v>0.03321983403504757</v>
       </c>
       <c r="E40">
-        <v>-0.01370065931575996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.008396942979868363</v>
+      </c>
+      <c r="F40">
+        <v>-0.06860427065725018</v>
+      </c>
+      <c r="G40">
+        <v>-0.09159309491107256</v>
+      </c>
+      <c r="H40">
+        <v>0.07801981545077154</v>
+      </c>
+      <c r="I40">
+        <v>-0.1339377892194929</v>
+      </c>
+      <c r="J40">
+        <v>0.2641513996834502</v>
+      </c>
+      <c r="K40">
+        <v>-0.07816166541902986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06267130256385138</v>
+        <v>0.04887635049470777</v>
       </c>
       <c r="C41">
-        <v>-0.02644326862183994</v>
+        <v>-0.03182562990914863</v>
       </c>
       <c r="D41">
-        <v>0.008716064617129883</v>
+        <v>-0.003907403868627767</v>
       </c>
       <c r="E41">
-        <v>0.004101596393198636</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009900056877817701</v>
+      </c>
+      <c r="F41">
+        <v>0.01733358369558574</v>
+      </c>
+      <c r="G41">
+        <v>-0.01649735261907867</v>
+      </c>
+      <c r="H41">
+        <v>-0.03126651257756093</v>
+      </c>
+      <c r="I41">
+        <v>-0.008135851797316506</v>
+      </c>
+      <c r="J41">
+        <v>0.03533760648035632</v>
+      </c>
+      <c r="K41">
+        <v>-0.03664910437559718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06436914799201096</v>
+        <v>0.061817731287658</v>
       </c>
       <c r="C43">
-        <v>-0.01699724950955662</v>
+        <v>-0.03438757577291411</v>
       </c>
       <c r="D43">
-        <v>0.01769880599479328</v>
+        <v>-0.01059448633804047</v>
       </c>
       <c r="E43">
-        <v>-0.02041740830199975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01962373238964374</v>
+      </c>
+      <c r="F43">
+        <v>-0.018103508256975</v>
+      </c>
+      <c r="G43">
+        <v>-0.003003435843544233</v>
+      </c>
+      <c r="H43">
+        <v>-0.05411439197120906</v>
+      </c>
+      <c r="I43">
+        <v>-0.01066767493414347</v>
+      </c>
+      <c r="J43">
+        <v>0.01101208402978874</v>
+      </c>
+      <c r="K43">
+        <v>-0.01084136675322466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09345289278134841</v>
+        <v>0.09507599458964537</v>
       </c>
       <c r="C44">
-        <v>-0.05944720571220911</v>
+        <v>-0.05547532206769668</v>
       </c>
       <c r="D44">
-        <v>0.01815016603495757</v>
+        <v>-0.0003890866999268644</v>
       </c>
       <c r="E44">
-        <v>-0.08421117611085198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07612597730917045</v>
+      </c>
+      <c r="F44">
+        <v>-0.1134467326904487</v>
+      </c>
+      <c r="G44">
+        <v>-0.06539704991004333</v>
+      </c>
+      <c r="H44">
+        <v>-0.05544920194757125</v>
+      </c>
+      <c r="I44">
+        <v>-0.1531161225150133</v>
+      </c>
+      <c r="J44">
+        <v>0.06496037987625981</v>
+      </c>
+      <c r="K44">
+        <v>-0.009826728389612027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03223886994893783</v>
+        <v>0.04626969861496328</v>
       </c>
       <c r="C46">
-        <v>-0.03249856087283676</v>
+        <v>-0.03126857708682804</v>
       </c>
       <c r="D46">
-        <v>0.01429711979684449</v>
+        <v>-0.01385863727494378</v>
       </c>
       <c r="E46">
-        <v>-0.01863316642413219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01740959380704745</v>
+      </c>
+      <c r="F46">
+        <v>-0.0480347914040387</v>
+      </c>
+      <c r="G46">
+        <v>0.00841646132518842</v>
+      </c>
+      <c r="H46">
+        <v>-0.01331453156239503</v>
+      </c>
+      <c r="I46">
+        <v>-0.02907535449647125</v>
+      </c>
+      <c r="J46">
+        <v>-0.03322603100933477</v>
+      </c>
+      <c r="K46">
+        <v>-0.04662704651924775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03889530383608167</v>
+        <v>0.04773404266857062</v>
       </c>
       <c r="C47">
-        <v>0.008017986744697591</v>
+        <v>-0.007373261975656345</v>
       </c>
       <c r="D47">
-        <v>0.007938161695819611</v>
+        <v>0.004191274104188694</v>
       </c>
       <c r="E47">
-        <v>-0.01796329599669852</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.005040999400414422</v>
+      </c>
+      <c r="F47">
+        <v>-0.04052622774538152</v>
+      </c>
+      <c r="G47">
+        <v>0.01800051209085918</v>
+      </c>
+      <c r="H47">
+        <v>-0.01544900287436428</v>
+      </c>
+      <c r="I47">
+        <v>-0.03209553499844933</v>
+      </c>
+      <c r="J47">
+        <v>-0.03214065121218734</v>
+      </c>
+      <c r="K47">
+        <v>0.002953475424694821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05116513984813773</v>
+        <v>0.0451381429713993</v>
       </c>
       <c r="C48">
-        <v>-0.02016287616329992</v>
+        <v>-0.01428619470888012</v>
       </c>
       <c r="D48">
-        <v>0.02860609461838638</v>
+        <v>0.004062559339440731</v>
       </c>
       <c r="E48">
-        <v>-0.02145696631151953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004423141424703914</v>
+      </c>
+      <c r="F48">
+        <v>-0.04620597944087624</v>
+      </c>
+      <c r="G48">
+        <v>0.004811339487611419</v>
+      </c>
+      <c r="H48">
+        <v>0.007887936368489987</v>
+      </c>
+      <c r="I48">
+        <v>-0.05567503298543921</v>
+      </c>
+      <c r="J48">
+        <v>-0.001928105782453046</v>
+      </c>
+      <c r="K48">
+        <v>-0.04916996860071566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1480022914778004</v>
+        <v>0.2033565637705833</v>
       </c>
       <c r="C49">
-        <v>-0.007067167977191252</v>
+        <v>-0.01696601044661793</v>
       </c>
       <c r="D49">
-        <v>0.07174641383579455</v>
+        <v>-0.1585235043477667</v>
       </c>
       <c r="E49">
-        <v>-0.02659041417906005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.008176057829650562</v>
+      </c>
+      <c r="F49">
+        <v>0.1307512329339289</v>
+      </c>
+      <c r="G49">
+        <v>0.1043906730147003</v>
+      </c>
+      <c r="H49">
+        <v>0.1819762116985967</v>
+      </c>
+      <c r="I49">
+        <v>0.1267772759557512</v>
+      </c>
+      <c r="J49">
+        <v>0.06409410061803558</v>
+      </c>
+      <c r="K49">
+        <v>0.223192567969765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06737328108244867</v>
+        <v>0.05773238629076812</v>
       </c>
       <c r="C50">
-        <v>-0.02261202614413816</v>
+        <v>-0.03266381599760355</v>
       </c>
       <c r="D50">
-        <v>0.031290643624202</v>
+        <v>-0.01070744630117012</v>
       </c>
       <c r="E50">
-        <v>-0.005283351654226336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01967192343309131</v>
+      </c>
+      <c r="F50">
+        <v>-0.03076825004205083</v>
+      </c>
+      <c r="G50">
+        <v>-0.0001705258495143299</v>
+      </c>
+      <c r="H50">
+        <v>-0.0595946279030645</v>
+      </c>
+      <c r="I50">
+        <v>-0.04028323110271217</v>
+      </c>
+      <c r="J50">
+        <v>-0.04098754735803623</v>
+      </c>
+      <c r="K50">
+        <v>-0.0334079838311618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03438827378561473</v>
+        <v>0.03950687244862598</v>
       </c>
       <c r="C51">
-        <v>0.007214200026885311</v>
+        <v>0.001775136070087984</v>
       </c>
       <c r="D51">
-        <v>-0.01703199788972499</v>
+        <v>0.01468725934169022</v>
       </c>
       <c r="E51">
-        <v>-0.004731967503034867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03104276435717297</v>
+      </c>
+      <c r="F51">
+        <v>0.02105138797630177</v>
+      </c>
+      <c r="G51">
+        <v>0.009988312111583152</v>
+      </c>
+      <c r="H51">
+        <v>0.01813341369111174</v>
+      </c>
+      <c r="I51">
+        <v>0.009412324852870161</v>
+      </c>
+      <c r="J51">
+        <v>0.03641328991188275</v>
+      </c>
+      <c r="K51">
+        <v>0.06736411128468189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.155321172263343</v>
+        <v>0.1561040795625571</v>
       </c>
       <c r="C53">
-        <v>0.03489159470838234</v>
+        <v>-0.01381254089010051</v>
       </c>
       <c r="D53">
-        <v>0.06517243509701431</v>
+        <v>-0.06346123940999117</v>
       </c>
       <c r="E53">
-        <v>0.0005236728798809999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01506985205855551</v>
+      </c>
+      <c r="F53">
+        <v>0.02686619241984138</v>
+      </c>
+      <c r="G53">
+        <v>0.04506425790220806</v>
+      </c>
+      <c r="H53">
+        <v>-0.2287770124637865</v>
+      </c>
+      <c r="I53">
+        <v>0.05633528884809844</v>
+      </c>
+      <c r="J53">
+        <v>-0.04575651270645874</v>
+      </c>
+      <c r="K53">
+        <v>0.04989174338002288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06709824717779191</v>
+        <v>0.06431170581928214</v>
       </c>
       <c r="C54">
-        <v>-0.02104070134942889</v>
+        <v>-0.01315208399708958</v>
       </c>
       <c r="D54">
-        <v>0.009065150169643332</v>
+        <v>0.007680036526714782</v>
       </c>
       <c r="E54">
-        <v>-0.03833039264568965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01757055970912714</v>
+      </c>
+      <c r="F54">
+        <v>-0.08469938113326887</v>
+      </c>
+      <c r="G54">
+        <v>-0.04758738390132143</v>
+      </c>
+      <c r="H54">
+        <v>-0.01060775084537453</v>
+      </c>
+      <c r="I54">
+        <v>-0.1127904412026212</v>
+      </c>
+      <c r="J54">
+        <v>-0.02382026052803199</v>
+      </c>
+      <c r="K54">
+        <v>-0.079919508080221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09855941675375525</v>
+        <v>0.09665387029518777</v>
       </c>
       <c r="C55">
-        <v>-0.0001128328522347242</v>
+        <v>-0.02852723996113019</v>
       </c>
       <c r="D55">
-        <v>0.05227724223751896</v>
+        <v>-0.04256963514751422</v>
       </c>
       <c r="E55">
-        <v>-0.02127000406147607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003674454324901706</v>
+      </c>
+      <c r="F55">
+        <v>-0.006658776673541991</v>
+      </c>
+      <c r="G55">
+        <v>-0.004323527316097656</v>
+      </c>
+      <c r="H55">
+        <v>-0.1734614446293444</v>
+      </c>
+      <c r="I55">
+        <v>-0.01398507732054897</v>
+      </c>
+      <c r="J55">
+        <v>-0.03560339703833969</v>
+      </c>
+      <c r="K55">
+        <v>0.04446861690149501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1543033976769582</v>
+        <v>0.151806390479426</v>
       </c>
       <c r="C56">
-        <v>0.02805016768721036</v>
+        <v>-0.03369778403064765</v>
       </c>
       <c r="D56">
-        <v>0.08516799894999913</v>
+        <v>-0.06931833330393473</v>
       </c>
       <c r="E56">
-        <v>-0.03721067247684006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.004900336598092835</v>
+      </c>
+      <c r="F56">
+        <v>0.002451324477139306</v>
+      </c>
+      <c r="G56">
+        <v>0.02598305631458616</v>
+      </c>
+      <c r="H56">
+        <v>-0.2334437435351675</v>
+      </c>
+      <c r="I56">
+        <v>0.06545651261997421</v>
+      </c>
+      <c r="J56">
+        <v>-0.01885491502602028</v>
+      </c>
+      <c r="K56">
+        <v>0.01370334686945081</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1196554910531776</v>
+        <v>0.07993826790920579</v>
       </c>
       <c r="C58">
-        <v>-0.05337671389542585</v>
+        <v>-0.04475473851508822</v>
       </c>
       <c r="D58">
-        <v>-0.1204658321616036</v>
+        <v>0.1666603780917476</v>
       </c>
       <c r="E58">
-        <v>-0.1289185716342766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08930603662000219</v>
+      </c>
+      <c r="F58">
+        <v>-0.03817407350637513</v>
+      </c>
+      <c r="G58">
+        <v>0.1148043690446433</v>
+      </c>
+      <c r="H58">
+        <v>0.2574471833247703</v>
+      </c>
+      <c r="I58">
+        <v>-0.4867575308149858</v>
+      </c>
+      <c r="J58">
+        <v>0.06391416124406953</v>
+      </c>
+      <c r="K58">
+        <v>0.2251277728256799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1293616755344863</v>
+        <v>0.1660928697015031</v>
       </c>
       <c r="C59">
-        <v>0.4381995854222617</v>
+        <v>0.3562443165256376</v>
       </c>
       <c r="D59">
-        <v>-0.01611212966541206</v>
+        <v>0.02316434721570798</v>
       </c>
       <c r="E59">
-        <v>-0.08168693721794226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03138520563807305</v>
+      </c>
+      <c r="F59">
+        <v>0.01307043348221782</v>
+      </c>
+      <c r="G59">
+        <v>-0.03234164901954339</v>
+      </c>
+      <c r="H59">
+        <v>-0.05502271112343267</v>
+      </c>
+      <c r="I59">
+        <v>0.03311112925135135</v>
+      </c>
+      <c r="J59">
+        <v>0.06595742072059019</v>
+      </c>
+      <c r="K59">
+        <v>-0.002497397130825263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2201531315809482</v>
+        <v>0.2456499367270969</v>
       </c>
       <c r="C60">
-        <v>0.02562605979673293</v>
+        <v>-0.0351319168457782</v>
       </c>
       <c r="D60">
-        <v>0.07693574064147363</v>
+        <v>-0.1224128548508121</v>
       </c>
       <c r="E60">
-        <v>-0.0511280390734303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02941057892327501</v>
+      </c>
+      <c r="F60">
+        <v>0.07545658512526746</v>
+      </c>
+      <c r="G60">
+        <v>0.0001555547562999961</v>
+      </c>
+      <c r="H60">
+        <v>0.110451725745715</v>
+      </c>
+      <c r="I60">
+        <v>0.1420962840617013</v>
+      </c>
+      <c r="J60">
+        <v>-0.09228921439109805</v>
+      </c>
+      <c r="K60">
+        <v>0.148918388163087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08135042149514436</v>
+        <v>0.08845592351530462</v>
       </c>
       <c r="C61">
-        <v>-0.02620349991069627</v>
+        <v>-0.03745840845538675</v>
       </c>
       <c r="D61">
-        <v>0.02947397278890875</v>
+        <v>-0.02804117855872577</v>
       </c>
       <c r="E61">
-        <v>-0.009051640240983625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008301122747601832</v>
+      </c>
+      <c r="F61">
+        <v>-0.03100887024293869</v>
+      </c>
+      <c r="G61">
+        <v>-0.04361326404174316</v>
+      </c>
+      <c r="H61">
+        <v>-0.05603163124161576</v>
+      </c>
+      <c r="I61">
+        <v>-0.05636171121583027</v>
+      </c>
+      <c r="J61">
+        <v>0.06968697109220826</v>
+      </c>
+      <c r="K61">
+        <v>-0.006735954500532958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1506845518087254</v>
+        <v>0.1465875525164063</v>
       </c>
       <c r="C62">
-        <v>0.02198041365109985</v>
+        <v>-0.03688516585723105</v>
       </c>
       <c r="D62">
-        <v>0.04316447897337878</v>
+        <v>-0.04091886628963327</v>
       </c>
       <c r="E62">
-        <v>0.02003383409983365</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03755033734466227</v>
+      </c>
+      <c r="F62">
+        <v>0.0372476338209814</v>
+      </c>
+      <c r="G62">
+        <v>-0.002024664669862377</v>
+      </c>
+      <c r="H62">
+        <v>-0.2302632950923272</v>
+      </c>
+      <c r="I62">
+        <v>0.07007915155559181</v>
+      </c>
+      <c r="J62">
+        <v>-0.08544531992405256</v>
+      </c>
+      <c r="K62">
+        <v>0.01085964583777459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06125789974092205</v>
+        <v>0.0538144638585272</v>
       </c>
       <c r="C63">
-        <v>-0.02566843847215445</v>
+        <v>-0.02021464480384212</v>
       </c>
       <c r="D63">
-        <v>0.01992922740638342</v>
+        <v>-0.009194329816450931</v>
       </c>
       <c r="E63">
-        <v>-0.01511855566336103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01027460315493503</v>
+      </c>
+      <c r="F63">
+        <v>-0.03146053885386751</v>
+      </c>
+      <c r="G63">
+        <v>-0.03566286150717531</v>
+      </c>
+      <c r="H63">
+        <v>-0.0195802662033075</v>
+      </c>
+      <c r="I63">
+        <v>-0.05138088999669298</v>
+      </c>
+      <c r="J63">
+        <v>-0.03342926455871425</v>
+      </c>
+      <c r="K63">
+        <v>-0.0415756197254445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1013056127872835</v>
+        <v>0.1068683409379552</v>
       </c>
       <c r="C64">
-        <v>0.002613304584507457</v>
+        <v>-0.01762317680155429</v>
       </c>
       <c r="D64">
-        <v>0.05381917163155864</v>
+        <v>-0.05155923278872689</v>
       </c>
       <c r="E64">
-        <v>-0.02578783487383964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01520120982902325</v>
+      </c>
+      <c r="F64">
+        <v>-0.06152317660858517</v>
+      </c>
+      <c r="G64">
+        <v>-0.03388762796439692</v>
+      </c>
+      <c r="H64">
+        <v>0.01663400672033847</v>
+      </c>
+      <c r="I64">
+        <v>-0.04586732340808359</v>
+      </c>
+      <c r="J64">
+        <v>0.04553508543568768</v>
+      </c>
+      <c r="K64">
+        <v>-0.02463687277442973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1201101709751783</v>
+        <v>0.131911820676142</v>
       </c>
       <c r="C65">
-        <v>-0.02444823169664577</v>
+        <v>-0.008913481827891669</v>
       </c>
       <c r="D65">
-        <v>0.04396006475672006</v>
+        <v>-0.06247765535596386</v>
       </c>
       <c r="E65">
-        <v>-0.04893396471087145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.007527266875448183</v>
+      </c>
+      <c r="F65">
+        <v>-0.04423324535342839</v>
+      </c>
+      <c r="G65">
+        <v>-0.08464161418172958</v>
+      </c>
+      <c r="H65">
+        <v>0.2236167190143641</v>
+      </c>
+      <c r="I65">
+        <v>-0.0958353073326678</v>
+      </c>
+      <c r="J65">
+        <v>-0.6497558727665012</v>
+      </c>
+      <c r="K65">
+        <v>0.01453147639330394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1582579309023796</v>
+        <v>0.1472688543031526</v>
       </c>
       <c r="C66">
-        <v>-0.07745307085195254</v>
+        <v>-0.09247704307817196</v>
       </c>
       <c r="D66">
-        <v>0.05281353192022948</v>
+        <v>-0.04413925245498138</v>
       </c>
       <c r="E66">
-        <v>-0.01388437918652602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.001496115558676669</v>
+      </c>
+      <c r="F66">
+        <v>-0.02794882569284722</v>
+      </c>
+      <c r="G66">
+        <v>-0.08116642676374893</v>
+      </c>
+      <c r="H66">
+        <v>-0.0343501528664615</v>
+      </c>
+      <c r="I66">
+        <v>-0.1082658108499053</v>
+      </c>
+      <c r="J66">
+        <v>0.2153976310688103</v>
+      </c>
+      <c r="K66">
+        <v>-0.05022190738102823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09659035543528462</v>
+        <v>0.09764389756913532</v>
       </c>
       <c r="C67">
-        <v>-0.007411270268213544</v>
+        <v>-0.04162063414160411</v>
       </c>
       <c r="D67">
-        <v>-0.02697174620161329</v>
+        <v>0.01647761305243698</v>
       </c>
       <c r="E67">
-        <v>-0.007450450803952201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03932983579712849</v>
+      </c>
+      <c r="F67">
+        <v>0.02060223682793348</v>
+      </c>
+      <c r="G67">
+        <v>-0.0286012046787394</v>
+      </c>
+      <c r="H67">
+        <v>-0.01129368260443355</v>
+      </c>
+      <c r="I67">
+        <v>0.09260852050122852</v>
+      </c>
+      <c r="J67">
+        <v>0.03756769028317924</v>
+      </c>
+      <c r="K67">
+        <v>-0.04442810195407942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04294392817763748</v>
+        <v>0.0772145477035147</v>
       </c>
       <c r="C68">
-        <v>0.260475737254166</v>
+        <v>0.2813443852604469</v>
       </c>
       <c r="D68">
-        <v>-0.01118795958280046</v>
+        <v>0.01675102822839033</v>
       </c>
       <c r="E68">
-        <v>-0.04227664741176676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01334112425859203</v>
+      </c>
+      <c r="F68">
+        <v>-0.04256285848110253</v>
+      </c>
+      <c r="G68">
+        <v>0.02025016265173468</v>
+      </c>
+      <c r="H68">
+        <v>-0.01513961343850671</v>
+      </c>
+      <c r="I68">
+        <v>-0.03411441338873162</v>
+      </c>
+      <c r="J68">
+        <v>-0.03935844216397862</v>
+      </c>
+      <c r="K68">
+        <v>-0.01579571492389195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06931138643782613</v>
+        <v>0.0579391690991807</v>
       </c>
       <c r="C69">
-        <v>-0.01278122916524472</v>
+        <v>-0.01762601624203694</v>
       </c>
       <c r="D69">
-        <v>-0.002774462817607739</v>
+        <v>0.02179031518690265</v>
       </c>
       <c r="E69">
-        <v>-0.01545244863667428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.004540800214829052</v>
+      </c>
+      <c r="F69">
+        <v>-0.007251352470654806</v>
+      </c>
+      <c r="G69">
+        <v>-0.007403697422333019</v>
+      </c>
+      <c r="H69">
+        <v>-0.0329374777122312</v>
+      </c>
+      <c r="I69">
+        <v>-0.01101009013564941</v>
+      </c>
+      <c r="J69">
+        <v>0.005194566183319435</v>
+      </c>
+      <c r="K69">
+        <v>0.007916236599129062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01365590033308423</v>
+        <v>0.03824034168090247</v>
       </c>
       <c r="C70">
-        <v>0.01222953606621563</v>
+        <v>-0.006067222686005966</v>
       </c>
       <c r="D70">
-        <v>-0.006398335508883587</v>
+        <v>0.0004881508483479225</v>
       </c>
       <c r="E70">
-        <v>0.01271620174935124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.002374469761836294</v>
+      </c>
+      <c r="F70">
+        <v>0.05133361406223948</v>
+      </c>
+      <c r="G70">
+        <v>-0.001276404407751686</v>
+      </c>
+      <c r="H70">
+        <v>0.04305666224076183</v>
+      </c>
+      <c r="I70">
+        <v>0.02679559690443041</v>
+      </c>
+      <c r="J70">
+        <v>0.02006396479487741</v>
+      </c>
+      <c r="K70">
+        <v>-0.1196639595530938</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04102475289787466</v>
+        <v>0.08598612797677499</v>
       </c>
       <c r="C71">
-        <v>0.2892753097776524</v>
+        <v>0.3013739881141659</v>
       </c>
       <c r="D71">
-        <v>-0.01645305031189495</v>
+        <v>0.006447100065860252</v>
       </c>
       <c r="E71">
-        <v>-0.07684981637946059</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03069774136564139</v>
+      </c>
+      <c r="F71">
+        <v>-0.03785453486080777</v>
+      </c>
+      <c r="G71">
+        <v>0.006740218908668816</v>
+      </c>
+      <c r="H71">
+        <v>-0.01531867666858815</v>
+      </c>
+      <c r="I71">
+        <v>-0.02339862783068472</v>
+      </c>
+      <c r="J71">
+        <v>-0.01134203342115831</v>
+      </c>
+      <c r="K71">
+        <v>-0.003631298170627054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1478429392035888</v>
+        <v>0.1367439527218437</v>
       </c>
       <c r="C72">
-        <v>0.04421710719408606</v>
+        <v>0.0006368107182330856</v>
       </c>
       <c r="D72">
-        <v>0.03246806268436653</v>
+        <v>0.02889730127900299</v>
       </c>
       <c r="E72">
-        <v>0.234700270997323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1681955539824569</v>
+      </c>
+      <c r="F72">
+        <v>0.02911036446671834</v>
+      </c>
+      <c r="G72">
+        <v>-0.1104163149056106</v>
+      </c>
+      <c r="H72">
+        <v>-0.02600628576389842</v>
+      </c>
+      <c r="I72">
+        <v>0.00764453753621778</v>
+      </c>
+      <c r="J72">
+        <v>-0.1155820583834478</v>
+      </c>
+      <c r="K72">
+        <v>0.1136453017531817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2541669920620714</v>
+        <v>0.2478825323709847</v>
       </c>
       <c r="C73">
-        <v>-0.05241376709426901</v>
+        <v>-0.1005500742037369</v>
       </c>
       <c r="D73">
-        <v>0.09141022030889659</v>
+        <v>-0.1676942975168592</v>
       </c>
       <c r="E73">
-        <v>-0.08619211159659716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.08401078542743264</v>
+      </c>
+      <c r="F73">
+        <v>0.2526836874255874</v>
+      </c>
+      <c r="G73">
+        <v>0.1536273349431398</v>
+      </c>
+      <c r="H73">
+        <v>0.2532820128948359</v>
+      </c>
+      <c r="I73">
+        <v>0.09058003826928987</v>
+      </c>
+      <c r="J73">
+        <v>0.2283922819967367</v>
+      </c>
+      <c r="K73">
+        <v>0.4883672548591642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08575541747633357</v>
+        <v>0.09218486870551165</v>
       </c>
       <c r="C74">
-        <v>0.01598609871266186</v>
+        <v>-0.02891201137028602</v>
       </c>
       <c r="D74">
-        <v>0.05361021779069473</v>
+        <v>-0.04551971631927552</v>
       </c>
       <c r="E74">
-        <v>-0.006815744249615794</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01564562070968223</v>
+      </c>
+      <c r="F74">
+        <v>-0.0001438359798208172</v>
+      </c>
+      <c r="G74">
+        <v>0.04310218522009352</v>
+      </c>
+      <c r="H74">
+        <v>-0.1396455705866372</v>
+      </c>
+      <c r="I74">
+        <v>-0.006197873470797618</v>
+      </c>
+      <c r="J74">
+        <v>-0.004289553209020807</v>
+      </c>
+      <c r="K74">
+        <v>0.0576255916771326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1220877182470484</v>
+        <v>0.1050834941031355</v>
       </c>
       <c r="C75">
-        <v>0.001384081990400376</v>
+        <v>-0.02870361922738894</v>
       </c>
       <c r="D75">
-        <v>0.006134176160214212</v>
+        <v>0.01598551419507725</v>
       </c>
       <c r="E75">
-        <v>-0.02046065818396302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.005586097219587018</v>
+      </c>
+      <c r="F75">
+        <v>0.02390749901585691</v>
+      </c>
+      <c r="G75">
+        <v>0.02637783874843893</v>
+      </c>
+      <c r="H75">
+        <v>-0.1208123425466181</v>
+      </c>
+      <c r="I75">
+        <v>0.03094848212987563</v>
+      </c>
+      <c r="J75">
+        <v>-0.03661455515030213</v>
+      </c>
+      <c r="K75">
+        <v>0.01107494965861351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1423309247736873</v>
+        <v>0.1299327546911237</v>
       </c>
       <c r="C76">
-        <v>0.00546402397138207</v>
+        <v>-0.04739484662101323</v>
       </c>
       <c r="D76">
-        <v>0.07002940371239122</v>
+        <v>-0.06491233615208462</v>
       </c>
       <c r="E76">
-        <v>-0.02406814687276047</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.003795949682554404</v>
+      </c>
+      <c r="F76">
+        <v>-0.004411109797819788</v>
+      </c>
+      <c r="G76">
+        <v>0.0327045017434531</v>
+      </c>
+      <c r="H76">
+        <v>-0.2696274297203123</v>
+      </c>
+      <c r="I76">
+        <v>0.03789940381384103</v>
+      </c>
+      <c r="J76">
+        <v>-0.03949924680602995</v>
+      </c>
+      <c r="K76">
+        <v>0.03365379057983733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.132719818842413</v>
+        <v>0.09246369475994348</v>
       </c>
       <c r="C77">
-        <v>-0.04326007405555696</v>
+        <v>-0.02766405333407021</v>
       </c>
       <c r="D77">
-        <v>-0.05465763511097054</v>
+        <v>0.1262422862746828</v>
       </c>
       <c r="E77">
-        <v>-0.02335034622129799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.09425493017301485</v>
+      </c>
+      <c r="F77">
+        <v>-0.1333605248031581</v>
+      </c>
+      <c r="G77">
+        <v>-0.7655853313113774</v>
+      </c>
+      <c r="H77">
+        <v>0.1240009818935433</v>
+      </c>
+      <c r="I77">
+        <v>0.3758519000458204</v>
+      </c>
+      <c r="J77">
+        <v>0.1370368540076396</v>
+      </c>
+      <c r="K77">
+        <v>0.0561222011580437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1221564261996416</v>
+        <v>0.1560927579955798</v>
       </c>
       <c r="C78">
-        <v>-0.06817186544862061</v>
+        <v>-0.07314572922757455</v>
       </c>
       <c r="D78">
-        <v>0.04706515743087856</v>
+        <v>-0.02415949756209715</v>
       </c>
       <c r="E78">
-        <v>-0.008007351669203893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.05421898840655266</v>
+      </c>
+      <c r="F78">
+        <v>-0.1693649594296592</v>
+      </c>
+      <c r="G78">
+        <v>-0.01890364272920359</v>
+      </c>
+      <c r="H78">
+        <v>0.1330997410290275</v>
+      </c>
+      <c r="I78">
+        <v>0.007344548705687819</v>
+      </c>
+      <c r="J78">
+        <v>-0.07715704456191587</v>
+      </c>
+      <c r="K78">
+        <v>0.02324238285847735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1523393504046177</v>
+        <v>0.1455487753436837</v>
       </c>
       <c r="C79">
-        <v>-0.01909178175050812</v>
+        <v>-0.04136551221639596</v>
       </c>
       <c r="D79">
-        <v>0.06194597514947299</v>
+        <v>-0.04512408563647887</v>
       </c>
       <c r="E79">
-        <v>-0.003203397669252253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.008777044933403746</v>
+      </c>
+      <c r="F79">
+        <v>0.002285062929349361</v>
+      </c>
+      <c r="G79">
+        <v>-0.00980080686997313</v>
+      </c>
+      <c r="H79">
+        <v>-0.1961273579017167</v>
+      </c>
+      <c r="I79">
+        <v>0.0426911978626606</v>
+      </c>
+      <c r="J79">
+        <v>-0.07470096730176011</v>
+      </c>
+      <c r="K79">
+        <v>0.02166767731964539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03868427752046356</v>
+        <v>0.04407042752002644</v>
       </c>
       <c r="C80">
-        <v>-0.01698449770202123</v>
+        <v>-0.005635474783753799</v>
       </c>
       <c r="D80">
-        <v>0.01016829408377203</v>
+        <v>-0.04056822097251434</v>
       </c>
       <c r="E80">
-        <v>-0.005827902890346463</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0002977844075768426</v>
+      </c>
+      <c r="F80">
+        <v>0.04373544752904663</v>
+      </c>
+      <c r="G80">
+        <v>-0.000687397211028351</v>
+      </c>
+      <c r="H80">
+        <v>0.03489081333621428</v>
+      </c>
+      <c r="I80">
+        <v>-0.08616505268827662</v>
+      </c>
+      <c r="J80">
+        <v>0.007007352759319463</v>
+      </c>
+      <c r="K80">
+        <v>-0.02658615177050937</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1373412801937028</v>
+        <v>0.1336851665122021</v>
       </c>
       <c r="C81">
-        <v>0.0005023354481605321</v>
+        <v>-0.01799094730723362</v>
       </c>
       <c r="D81">
-        <v>0.04965826882159696</v>
+        <v>-0.0397381326018063</v>
       </c>
       <c r="E81">
-        <v>-0.02631818767365289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0002316260006689456</v>
+      </c>
+      <c r="F81">
+        <v>0.006608249466192022</v>
+      </c>
+      <c r="G81">
+        <v>0.0171702734448713</v>
+      </c>
+      <c r="H81">
+        <v>-0.1588765956229217</v>
+      </c>
+      <c r="I81">
+        <v>-0.003105246693876465</v>
+      </c>
+      <c r="J81">
+        <v>0.02302023682873435</v>
+      </c>
+      <c r="K81">
+        <v>-0.008076658778771948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1238406358984414</v>
+        <v>0.1264944238009154</v>
       </c>
       <c r="C82">
-        <v>-0.01670807183917188</v>
+        <v>-0.02936174205938285</v>
       </c>
       <c r="D82">
-        <v>0.03162707171857206</v>
+        <v>-0.03905757574509192</v>
       </c>
       <c r="E82">
-        <v>-0.03427803314218755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.002431595305639808</v>
+      </c>
+      <c r="F82">
+        <v>0.02500070993154416</v>
+      </c>
+      <c r="G82">
+        <v>0.04152765707893254</v>
+      </c>
+      <c r="H82">
+        <v>-0.2774074399170124</v>
+      </c>
+      <c r="I82">
+        <v>0.02854660399982004</v>
+      </c>
+      <c r="J82">
+        <v>0.00855322300566972</v>
+      </c>
+      <c r="K82">
+        <v>-0.005118396311337535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0538977011067771</v>
+        <v>0.07716494316482334</v>
       </c>
       <c r="C83">
-        <v>-0.01813129905444401</v>
+        <v>-0.03054874649302926</v>
       </c>
       <c r="D83">
-        <v>-0.06276758344423203</v>
+        <v>0.03006938295922193</v>
       </c>
       <c r="E83">
-        <v>-0.02572853473945084</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.04359315007617921</v>
+      </c>
+      <c r="F83">
+        <v>0.06730650309225893</v>
+      </c>
+      <c r="G83">
+        <v>0.03124337484671066</v>
+      </c>
+      <c r="H83">
+        <v>0.0790853476987769</v>
+      </c>
+      <c r="I83">
+        <v>-0.07633139815636694</v>
+      </c>
+      <c r="J83">
+        <v>0.03843910119278047</v>
+      </c>
+      <c r="K83">
+        <v>-0.04495824659711385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05184917296604524</v>
+        <v>0.03564140800625295</v>
       </c>
       <c r="C84">
-        <v>-0.01419164997387044</v>
+        <v>-0.04356412326644898</v>
       </c>
       <c r="D84">
-        <v>0.04535830766445668</v>
+        <v>-0.003090303415707951</v>
       </c>
       <c r="E84">
-        <v>0.03466076330422679</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05485534879339294</v>
+      </c>
+      <c r="F84">
+        <v>-0.03971953719651422</v>
+      </c>
+      <c r="G84">
+        <v>0.05272736864608807</v>
+      </c>
+      <c r="H84">
+        <v>0.004821828393328296</v>
+      </c>
+      <c r="I84">
+        <v>-0.1167301261859523</v>
+      </c>
+      <c r="J84">
+        <v>0.02485248326194109</v>
+      </c>
+      <c r="K84">
+        <v>-0.1158410438000313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1146156881498834</v>
+        <v>0.1213360969161491</v>
       </c>
       <c r="C85">
-        <v>-0.03468715796513399</v>
+        <v>-0.03764173731718895</v>
       </c>
       <c r="D85">
-        <v>0.01964343631365227</v>
+        <v>-0.02453901638940689</v>
       </c>
       <c r="E85">
-        <v>-0.05931484764743841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03467639489236983</v>
+      </c>
+      <c r="F85">
+        <v>-0.008298751405347958</v>
+      </c>
+      <c r="G85">
+        <v>0.006147932118741262</v>
+      </c>
+      <c r="H85">
+        <v>-0.20055229043073</v>
+      </c>
+      <c r="I85">
+        <v>0.01381669365182076</v>
+      </c>
+      <c r="J85">
+        <v>-0.07250206044265477</v>
+      </c>
+      <c r="K85">
+        <v>0.02480602266241695</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07676267072209765</v>
+        <v>0.06743597347740071</v>
       </c>
       <c r="C86">
-        <v>-0.06738661091231316</v>
+        <v>-0.03575204066587914</v>
       </c>
       <c r="D86">
-        <v>0.01622515348175121</v>
+        <v>0.01080244706609139</v>
       </c>
       <c r="E86">
-        <v>-0.004296002943569585</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01917657437628034</v>
+      </c>
+      <c r="F86">
+        <v>-0.03402888683727473</v>
+      </c>
+      <c r="G86">
+        <v>0.01374900622606453</v>
+      </c>
+      <c r="H86">
+        <v>0.03958163846867392</v>
+      </c>
+      <c r="I86">
+        <v>0.02424318277984085</v>
+      </c>
+      <c r="J86">
+        <v>-0.02919836380414362</v>
+      </c>
+      <c r="K86">
+        <v>-0.0825185514899253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1324666104428459</v>
+        <v>0.1323263164392318</v>
       </c>
       <c r="C87">
-        <v>-0.07227446663203978</v>
+        <v>-0.07198117759624539</v>
       </c>
       <c r="D87">
-        <v>0.06121808377572564</v>
+        <v>-0.0199321161517714</v>
       </c>
       <c r="E87">
-        <v>-0.03196452887086804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.009644702455932202</v>
+      </c>
+      <c r="F87">
+        <v>-0.1064428858809148</v>
+      </c>
+      <c r="G87">
+        <v>-0.2039907492157704</v>
+      </c>
+      <c r="H87">
+        <v>0.04207616347456248</v>
+      </c>
+      <c r="I87">
+        <v>0.01319576685020528</v>
+      </c>
+      <c r="J87">
+        <v>0.03207057432760652</v>
+      </c>
+      <c r="K87">
+        <v>-0.01248644436254483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05929130962108584</v>
+        <v>0.06479902522194343</v>
       </c>
       <c r="C88">
-        <v>-0.02087587860667926</v>
+        <v>-0.03637371415453771</v>
       </c>
       <c r="D88">
-        <v>0.01569298657378526</v>
+        <v>-0.02992468878481687</v>
       </c>
       <c r="E88">
-        <v>-0.01051596585354988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009241080928264186</v>
+      </c>
+      <c r="F88">
+        <v>0.006121503694089628</v>
+      </c>
+      <c r="G88">
+        <v>-0.00697595691861947</v>
+      </c>
+      <c r="H88">
+        <v>-0.01580465228409516</v>
+      </c>
+      <c r="I88">
+        <v>-0.03950348556992138</v>
+      </c>
+      <c r="J88">
+        <v>0.02222450333498003</v>
+      </c>
+      <c r="K88">
+        <v>-0.02498370872780731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.0769692270574633</v>
+        <v>0.138983432725402</v>
       </c>
       <c r="C89">
-        <v>0.3259995274293084</v>
+        <v>0.3779188166644904</v>
       </c>
       <c r="D89">
-        <v>-0.01181748455685017</v>
+        <v>-0.006526033569144895</v>
       </c>
       <c r="E89">
-        <v>-0.1075812151122382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.07853769440566502</v>
+      </c>
+      <c r="F89">
+        <v>-0.03682425123088297</v>
+      </c>
+      <c r="G89">
+        <v>0.02596154745468932</v>
+      </c>
+      <c r="H89">
+        <v>0.01081806394804861</v>
+      </c>
+      <c r="I89">
+        <v>-0.0601667485422675</v>
+      </c>
+      <c r="J89">
+        <v>0.07989525735401799</v>
+      </c>
+      <c r="K89">
+        <v>0.009336149941967522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06333461987822098</v>
+        <v>0.09868521160656633</v>
       </c>
       <c r="C90">
-        <v>0.2901530004453122</v>
+        <v>0.284757545778812</v>
       </c>
       <c r="D90">
-        <v>-0.03441579439353926</v>
+        <v>0.02577042041145793</v>
       </c>
       <c r="E90">
-        <v>-0.04844210778693527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02862832235351867</v>
+      </c>
+      <c r="F90">
+        <v>-0.01641989416187618</v>
+      </c>
+      <c r="G90">
+        <v>-0.02807891399534465</v>
+      </c>
+      <c r="H90">
+        <v>0.03874880726517008</v>
+      </c>
+      <c r="I90">
+        <v>-0.06401077124310385</v>
+      </c>
+      <c r="J90">
+        <v>0.05233809367606417</v>
+      </c>
+      <c r="K90">
+        <v>0.01530504149033775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1032013701391803</v>
+        <v>0.08926048609500602</v>
       </c>
       <c r="C91">
-        <v>-0.01009110650401898</v>
+        <v>-0.03520560368594425</v>
       </c>
       <c r="D91">
-        <v>0.02860522205950551</v>
+        <v>-0.00664281021236006</v>
       </c>
       <c r="E91">
-        <v>-0.01303544014285013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.002637916200566876</v>
+      </c>
+      <c r="F91">
+        <v>0.01080501818226401</v>
+      </c>
+      <c r="G91">
+        <v>0.03561415437739655</v>
+      </c>
+      <c r="H91">
+        <v>-0.08873866524863701</v>
+      </c>
+      <c r="I91">
+        <v>0.01765220186160558</v>
+      </c>
+      <c r="J91">
+        <v>-0.01319605792011227</v>
+      </c>
+      <c r="K91">
+        <v>0.02124774753602595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.0484973126442005</v>
+        <v>0.09845437313159536</v>
       </c>
       <c r="C92">
-        <v>0.3409949300051744</v>
+        <v>0.3402320669779108</v>
       </c>
       <c r="D92">
-        <v>0.007787339216710996</v>
+        <v>-0.008532182120666507</v>
       </c>
       <c r="E92">
-        <v>-0.09331537604342735</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03609754854614773</v>
+      </c>
+      <c r="F92">
+        <v>-0.04452713405310218</v>
+      </c>
+      <c r="G92">
+        <v>0.02702344174914513</v>
+      </c>
+      <c r="H92">
+        <v>-0.01430473345345823</v>
+      </c>
+      <c r="I92">
+        <v>-0.02385663709658681</v>
+      </c>
+      <c r="J92">
+        <v>0.02636042212822891</v>
+      </c>
+      <c r="K92">
+        <v>0.002967431742291027</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04499329612554955</v>
+        <v>0.1002697683718932</v>
       </c>
       <c r="C93">
-        <v>0.2996123622039285</v>
+        <v>0.3174829862985596</v>
       </c>
       <c r="D93">
-        <v>-0.01572512437730122</v>
+        <v>-0.002364757842681176</v>
       </c>
       <c r="E93">
-        <v>-0.05338314483003966</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01945357458360378</v>
+      </c>
+      <c r="F93">
+        <v>-0.005925658347012284</v>
+      </c>
+      <c r="G93">
+        <v>0.002035612786190725</v>
+      </c>
+      <c r="H93">
+        <v>0.01158709533735684</v>
+      </c>
+      <c r="I93">
+        <v>0.0004681585486648357</v>
+      </c>
+      <c r="J93">
+        <v>-0.007766616846010523</v>
+      </c>
+      <c r="K93">
+        <v>-0.03189009432235154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1276194043891609</v>
+        <v>0.1219965362427864</v>
       </c>
       <c r="C94">
-        <v>-0.05274702314594532</v>
+        <v>-0.05510688893225691</v>
       </c>
       <c r="D94">
-        <v>0.02861220662185105</v>
+        <v>-0.01131301510695155</v>
       </c>
       <c r="E94">
-        <v>-0.03217249019550789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02262318613524104</v>
+      </c>
+      <c r="F94">
+        <v>-0.006573530660668343</v>
+      </c>
+      <c r="G94">
+        <v>0.07221309249069981</v>
+      </c>
+      <c r="H94">
+        <v>-0.1136754710056837</v>
+      </c>
+      <c r="I94">
+        <v>0.01619919390330223</v>
+      </c>
+      <c r="J94">
+        <v>-0.01966555224622717</v>
+      </c>
+      <c r="K94">
+        <v>0.01888744728426306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1326984307416627</v>
+        <v>0.1427618759433487</v>
       </c>
       <c r="C95">
-        <v>-0.07483697557534275</v>
+        <v>-0.06550788497169396</v>
       </c>
       <c r="D95">
-        <v>0.06852104184519082</v>
+        <v>-0.04038637703553356</v>
       </c>
       <c r="E95">
-        <v>-0.07241941351504025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.02684846826712534</v>
+      </c>
+      <c r="F95">
+        <v>-0.06307094188952012</v>
+      </c>
+      <c r="G95">
+        <v>-0.04019953011801142</v>
+      </c>
+      <c r="H95">
+        <v>0.1406967137497587</v>
+      </c>
+      <c r="I95">
+        <v>-0.05212033698079341</v>
+      </c>
+      <c r="J95">
+        <v>-0.009144788112012442</v>
+      </c>
+      <c r="K95">
+        <v>0.03168487282717048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.247034397871807</v>
+        <v>0.1882343775999854</v>
       </c>
       <c r="C97">
-        <v>0.1394483062399882</v>
+        <v>0.03151783692820916</v>
       </c>
       <c r="D97">
-        <v>0.02465791878958084</v>
+        <v>0.2983753046524604</v>
       </c>
       <c r="E97">
-        <v>0.8902179250859173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.8856575680320963</v>
+      </c>
+      <c r="F97">
+        <v>0.1025421916441994</v>
+      </c>
+      <c r="G97">
+        <v>-0.04723195597442468</v>
+      </c>
+      <c r="H97">
+        <v>0.05979091599718232</v>
+      </c>
+      <c r="I97">
+        <v>-0.04530383185338017</v>
+      </c>
+      <c r="J97">
+        <v>0.04599168547428904</v>
+      </c>
+      <c r="K97">
+        <v>0.04709001788434665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2845583096098479</v>
+        <v>0.2858758832169338</v>
       </c>
       <c r="C98">
-        <v>-0.04192866819178657</v>
+        <v>-0.09175171951273189</v>
       </c>
       <c r="D98">
-        <v>-0.01928508144488377</v>
+        <v>-0.05500456254839876</v>
       </c>
       <c r="E98">
-        <v>-0.08472425204026315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.02966046162509946</v>
+      </c>
+      <c r="F98">
+        <v>0.3160229739399579</v>
+      </c>
+      <c r="G98">
+        <v>0.2254919633532017</v>
+      </c>
+      <c r="H98">
+        <v>0.2878591828686365</v>
+      </c>
+      <c r="I98">
+        <v>0.2944682517245341</v>
+      </c>
+      <c r="J98">
+        <v>0.08775030393286096</v>
+      </c>
+      <c r="K98">
+        <v>-0.6032173293320119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2332035193240916</v>
+        <v>0.1534115948617631</v>
       </c>
       <c r="C99">
-        <v>-0.06559631896007503</v>
+        <v>-0.06591099658794761</v>
       </c>
       <c r="D99">
-        <v>-0.9273152468884059</v>
+        <v>0.7659467585014803</v>
       </c>
       <c r="E99">
-        <v>-0.008681125228824825</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.3393430856373753</v>
+      </c>
+      <c r="F99">
+        <v>0.3925092161633292</v>
+      </c>
+      <c r="G99">
+        <v>-0.03166891454079666</v>
+      </c>
+      <c r="H99">
+        <v>-0.1165436983957785</v>
+      </c>
+      <c r="I99">
+        <v>-0.06906654219970242</v>
+      </c>
+      <c r="J99">
+        <v>-0.1024081676876235</v>
+      </c>
+      <c r="K99">
+        <v>0.02792148966817093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05916902846797863</v>
+        <v>0.05492042352192613</v>
       </c>
       <c r="C101">
-        <v>0.000663149973103272</v>
+        <v>-0.0103793645196505</v>
       </c>
       <c r="D101">
-        <v>0.02904814985285911</v>
+        <v>-0.02331535507188656</v>
       </c>
       <c r="E101">
-        <v>-0.02585470932916965</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01504504196810946</v>
+      </c>
+      <c r="F101">
+        <v>-0.03255766260369966</v>
+      </c>
+      <c r="G101">
+        <v>-0.01442759201390576</v>
+      </c>
+      <c r="H101">
+        <v>-0.06363239772844588</v>
+      </c>
+      <c r="I101">
+        <v>-0.0502454077922365</v>
+      </c>
+      <c r="J101">
+        <v>-0.01861658675336841</v>
+      </c>
+      <c r="K101">
+        <v>-0.03798854198090907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
